--- a/data-raw/2020-obtn-by-measure.xlsx
+++ b/data-raw/2020-obtn-by-measure.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\ ObtN 2019-2020\2020 ObtN\2020 ObtN Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455E103-A191-41E2-81F1-B1242BE78C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529CC9FA-7B04-4DF7-9841-C6CD8C31C637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="859" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="859" firstSheet="24" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Median Income" sheetId="6" r:id="rId1"/>
     <sheet name="Life Expectancy - Overall" sheetId="35" r:id="rId2"/>
-    <sheet name="Above ALICE HH" sheetId="36" r:id="rId3"/>
+    <sheet name="Financial Hardship" sheetId="36" r:id="rId3"/>
     <sheet name="Land Area" sheetId="33" r:id="rId4"/>
     <sheet name="Developed or Cultivated Land" sheetId="26" r:id="rId5"/>
     <sheet name="Public Lands" sheetId="27" r:id="rId6"/>
@@ -45,8 +45,9 @@
     <sheet name="Broadband Access" sheetId="19" r:id="rId30"/>
     <sheet name="Transit Service" sheetId="22" r:id="rId31"/>
     <sheet name="Vehicle Miles Traveled" sheetId="31" r:id="rId32"/>
-    <sheet name="Mobile Homes" sheetId="8" r:id="rId33"/>
-    <sheet name="Childcare Availability" sheetId="38" r:id="rId34"/>
+    <sheet name="VMT per capita" sheetId="40" r:id="rId33"/>
+    <sheet name="Mobile Homes" sheetId="8" r:id="rId34"/>
+    <sheet name="Childcare Availability" sheetId="38" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="91">
   <si>
     <t>Rural Oregon</t>
   </si>
@@ -473,7 +474,71 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="204">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2460,7 +2525,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="168" formatCode="0\%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2669,502 +2734,517 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table356" displayName="Table356" ref="A1:D38" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table356" displayName="Table356" ref="A1:D38" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Rank" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="County" dataDxfId="194"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="For table" dataDxfId="193"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Numeric Only" dataDxfId="192"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Rank" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="County" dataDxfId="200"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="For table" dataDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Numeric Only" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table357" displayName="Table357" ref="A1:D38" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table357" displayName="Table357" ref="A1:D38" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C1"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Rank" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="County" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="For table" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Numeric Only" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Rank" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="County" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="For table" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Numeric Only" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table3579101112" displayName="Table3579101112" ref="A1:D40" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table3579101112" displayName="Table3579101112" ref="A1:D40" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Rank" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="County" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="For table" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Numeric Only" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Rank" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="County" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="For table" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Numeric Only" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table357813141516171819202122232728" displayName="Table357813141516171819202122232728" ref="A1:D40" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table357813141516171819202122232728" displayName="Table357813141516171819202122232728" ref="A1:D40" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Rank" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="County" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="For table" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Numeric Only" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Rank" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="County" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="For table" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Numeric Only" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table357910" displayName="Table357910" ref="A1:D40" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table357910" displayName="Table357910" ref="A1:D40" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Rank" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="County" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="For table" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Numeric Only" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Rank" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="County" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="For table" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Numeric Only" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table357813" displayName="Table357813" ref="A1:D38" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table357813" displayName="Table357813" ref="A1:D38" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Rank" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="County" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="For table" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Numeric Only" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Rank" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="County" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="For table" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Numeric Only" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table3579" displayName="Table3579" ref="A1:D40" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table3579" displayName="Table3579" ref="A1:D40" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Rank" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="County" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="For table" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Numeric Only" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Rank" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="County" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="For table" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Numeric Only" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table35781314" displayName="Table35781314" ref="A1:D40" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table35781314" displayName="Table35781314" ref="A1:D40" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Rank" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="County" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="For table" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Numeric Only" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Rank" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="County" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="For table" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Numeric Only" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table357930" displayName="Table357930" ref="A1:D40" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table357930" displayName="Table357930" ref="A1:D40" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Rank" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="County" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="For table" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Numeric Only" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Rank" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="County" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="For table" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Numeric Only" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table35793037" displayName="Table35793037" ref="A1:D40" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table35793037" displayName="Table35793037" ref="A1:D40" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Rank" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="County" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="For table" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Numeric Only" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Rank" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="County" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="For table" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Numeric Only" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table3578131415" displayName="Table3578131415" ref="A1:D38" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table3578131415" displayName="Table3578131415" ref="A1:D38" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Rank" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="County" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="For table" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Numeric Only" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Rank" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="County" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="For table" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Numeric Only" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3564" displayName="Table3564" ref="A1:D38" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3564" displayName="Table3564" ref="A1:D38" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Rank" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="County" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="For table" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Numeric Only" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Rank" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="County" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="For table" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Numeric Only" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table357813141516" displayName="Table357813141516" ref="A1:D38" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table357813141516" displayName="Table357813141516" ref="A1:D38" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Rank" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="County" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="For table" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Numeric Only" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Rank" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="County" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="For table" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Numeric Only" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table35781314151617" displayName="Table35781314151617" ref="A1:D40" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table35781314151617" displayName="Table35781314151617" ref="A1:D40" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Rank" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="County" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="For table" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Numeric Only" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Rank" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="County" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="For table" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Numeric Only" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table3578131415161718" displayName="Table3578131415161718" ref="A1:D40" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table3578131415161718" displayName="Table3578131415161718" ref="A1:D40" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Rank" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="County" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="For table" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Numeric Only" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Rank" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="County" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="For table" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Numeric Only" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table35781314151617181920212223" displayName="Table35781314151617181920212223" ref="A1:D40" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table35781314151617181920212223" displayName="Table35781314151617181920212223" ref="A1:D40" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Rank" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="County" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="For table" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Numeric Only" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Rank" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="County" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="For table" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Numeric Only" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table35791011" displayName="Table35791011" ref="A1:D37" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table35791011" displayName="Table35791011" ref="A1:D37" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
     <sortCondition descending="1" ref="C2:C37"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Rank" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="County" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="For table" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Numeric Only" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Rank" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="County" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="For table" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Numeric Only" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table35781314151617181920" displayName="Table35781314151617181920" ref="A1:D38" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table35781314151617181920" displayName="Table35781314151617181920" ref="A1:D38" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Rank" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="County" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="For table" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Numeric Only" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Rank" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="County" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="For table" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Numeric Only" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table3578131415161718192024" displayName="Table3578131415161718192024" ref="A1:D38" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table3578131415161718192024" displayName="Table3578131415161718192024" ref="A1:D38" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Rank" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="County" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="For table" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Numeric Only" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Rank" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="County" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="For table" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Numeric Only" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table3578131415161718192021" displayName="Table3578131415161718192021" ref="A1:D38" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table3578131415161718192021" displayName="Table3578131415161718192021" ref="A1:D38" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Rank" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="County" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="For table" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Numeric Only" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Rank" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="County" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="For table" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Numeric Only" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table3578131415161718192021222329" displayName="Table3578131415161718192021222329" ref="A1:D38" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table3578131415161718192021222329" displayName="Table3578131415161718192021222329" ref="A1:D38" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Rank" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="County" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="For table" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="Numeric Only" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Rank" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="County" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="For table" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="Numeric Only" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table3578131415161718192021222325" displayName="Table3578131415161718192021222325" ref="A1:D40" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table3578131415161718192021222325" displayName="Table3578131415161718192021222325" ref="A1:D40" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="Rank" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="County" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="For table" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="Numeric Only" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="Rank" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="County" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="For table" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="Numeric Only" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table356433" displayName="Table356433" ref="A1:D40" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table356433" displayName="Table356433" ref="A1:D40" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C1"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Rank" dataDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="County" dataDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="For table" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Numeric Only" dataDxfId="180"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Rank" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="County" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="For table" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Numeric Only" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table357813141516171819" displayName="Table357813141516171819" ref="A1:D38" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table357813141516171819" displayName="Table357813141516171819" ref="A1:D38" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Rank" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="County" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="For table" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Numeric Only" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Rank" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="County" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="For table" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Numeric Only" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table357813141516171819202122" displayName="Table357813141516171819202122" ref="A1:D38" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table357813141516171819202122" displayName="Table357813141516171819202122" ref="A1:D38" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Rank" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="County" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="For table" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="Numeric Only" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Rank" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="County" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="For table" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="Numeric Only" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table35793" displayName="Table35793" ref="A1:D40" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table35793" displayName="Table35793" ref="A1:D40" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Rank" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="County" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="For table" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Numeric Only" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Rank" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="County" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="For table" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Numeric Only" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Table3578" displayName="Table3578" ref="A1:D40" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{CA31B019-6346-4603-A47B-3583E2ADF787}" name="Table3579332" displayName="Table3579332" ref="A1:D40" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
-    <sortCondition descending="1" ref="C2:C40"/>
+    <sortCondition descending="1" ref="C1"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="Rank" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="County" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="For table" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Numeric Only" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A5C844EC-D857-4576-A87F-17F555D407EB}" name="Rank" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{62373E95-6D9E-4765-BC50-53AFB7351596}" name="County" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{958CA25D-D46C-484E-AF54-69462981143C}" name="For table" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{60ED3527-044E-4AFF-BC5A-FD33F755F7F7}" name="Numeric Only" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table3579336" displayName="Table3579336" ref="A1:D40" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Table3578" displayName="Table3578" ref="A1:D40" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+    <sortCondition descending="1" ref="C2:C40"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="Rank" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="County" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="For table" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Numeric Only" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table3579336" displayName="Table3579336" ref="A1:D40" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Rank" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="County" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="For table" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="Numeric Only" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Rank" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="County" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="For table" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="Numeric Only" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table357813141516171819202122232731" displayName="Table357813141516171819202122232731" ref="A1:D40" totalsRowShown="0" headerRowDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table357813141516171819202122232731" displayName="Table357813141516171819202122232731" ref="A1:D40" totalsRowShown="0" headerRowDxfId="185">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition ref="B5"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Rank" dataDxfId="178"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="County" dataDxfId="177"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="For table" dataDxfId="176" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Numeric Only" dataDxfId="175"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Rank" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="County" dataDxfId="183"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="For table" dataDxfId="182" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Numeric Only" dataDxfId="181"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table357813141516171819202122232526" displayName="Table357813141516171819202122232526" ref="A1:D38" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table357813141516171819202122232526" displayName="Table357813141516171819202122232526" ref="A1:D38" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rank" dataDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="County" dataDxfId="171"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="For table" dataDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Numeric Only" dataDxfId="169"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rank" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="County" dataDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="For table" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Numeric Only" dataDxfId="175"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3578131415161718192021222327" displayName="Table3578131415161718192021222327" ref="A1:D40" totalsRowShown="0" headerRowDxfId="168" dataDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3578131415161718192021222327" displayName="Table3578131415161718192021222327" ref="A1:D40" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Rank" dataDxfId="166"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="County" dataDxfId="165"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="For table" dataDxfId="164"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Numeric Only" dataDxfId="163"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Rank" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="County" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="For table" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Numeric Only" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table2" displayName="Table2" ref="A1:D40" totalsRowShown="0" headerRowDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table2" displayName="Table2" ref="A1:D40" totalsRowShown="0" headerRowDxfId="168">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Rank" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="County" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="For table" dataDxfId="159" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Numeric Only" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Rank" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="County" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="For table" dataDxfId="165" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Numeric Only" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table35" displayName="Table35" ref="A1:D38" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table35" displayName="Table35" ref="A1:D38" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Rank" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="County" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="For table" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Numeric Only" dataDxfId="152"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Rank" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="County" dataDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="For table" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Numeric Only" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table33" displayName="Table33" ref="A1:D40" totalsRowShown="0" headerRowDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table33" displayName="Table33" ref="A1:D40" totalsRowShown="0" headerRowDxfId="157">
   <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000021000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3177,7 +3257,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Rank"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="County"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="For table" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="For table" dataDxfId="156"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Numeric Only"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15990,8 +16070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16020,55 +16100,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="27">
-        <v>65.41463414634147</v>
+        <v>71</v>
+      </c>
+      <c r="C2" s="17">
+        <v>56</v>
       </c>
       <c r="D2" s="8">
-        <v>65.41463414634147</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="27">
-        <v>62.486386059324751</v>
+        <v>78</v>
+      </c>
+      <c r="C3" s="17">
+        <v>56</v>
       </c>
       <c r="D3" s="8">
-        <v>62.486386059324751</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="27">
-        <v>62.140398944167863</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="17">
+        <v>54</v>
       </c>
       <c r="D4" s="8">
-        <v>62.140398944167863</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="27">
-        <v>61.306306306306304</v>
+        <v>48</v>
+      </c>
+      <c r="C5" s="17">
+        <v>54</v>
       </c>
       <c r="D5" s="8">
-        <v>61.306306306306304</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -16076,27 +16156,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="27">
-        <v>58.97986134037636</v>
+        <v>56</v>
+      </c>
+      <c r="C6" s="17">
+        <v>53</v>
       </c>
       <c r="D6" s="8">
-        <v>58.97986134037636</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="27">
-        <v>57.918666329881283</v>
+        <v>77</v>
+      </c>
+      <c r="C7" s="17">
+        <v>53</v>
       </c>
       <c r="D7" s="8">
-        <v>57.918666329881283</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -16104,371 +16184,371 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="27">
-        <v>57.113526314036264</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="17">
+        <v>49</v>
       </c>
       <c r="D8" s="8">
-        <v>57.113526314036264</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27">
-        <v>56.98953791674306</v>
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="17">
+        <v>49</v>
       </c>
       <c r="D9" s="8">
-        <v>56.98953791674306</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="27">
-        <v>56.814216152542699</v>
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>48</v>
       </c>
       <c r="D10" s="8">
-        <v>56.814216152542699</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="27">
-        <v>56.681640149587309</v>
+        <v>65</v>
+      </c>
+      <c r="C11" s="17">
+        <v>48</v>
       </c>
       <c r="D11" s="8">
-        <v>56.681640149587309</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="27">
-        <v>56.240992750195275</v>
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="17">
+        <v>48</v>
       </c>
       <c r="D12" s="8">
-        <v>56.240992750195275</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="27">
-        <v>56.132075471698116</v>
+        <v>57</v>
+      </c>
+      <c r="C13" s="17">
+        <v>48</v>
       </c>
       <c r="D13" s="8">
-        <v>56.132075471698116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="27">
-        <v>55.996565213243009</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="17">
+        <v>47</v>
       </c>
       <c r="D14" s="8">
-        <v>55.996565213243009</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="27">
-        <v>55.513428120063189</v>
+        <v>73</v>
+      </c>
+      <c r="C15" s="17">
+        <v>47</v>
       </c>
       <c r="D15" s="8">
-        <v>55.513428120063189</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="27">
-        <v>55.403764420157863</v>
+        <v>74</v>
+      </c>
+      <c r="C16" s="17">
+        <v>47</v>
       </c>
       <c r="D16" s="8">
-        <v>55.403764420157863</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="27">
-        <v>54.734994105284741</v>
+        <v>62</v>
+      </c>
+      <c r="C17" s="17">
+        <v>47</v>
       </c>
       <c r="D17" s="8">
-        <v>54.734994105284741</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="27">
-        <v>54.639898540165674</v>
+        <v>66</v>
+      </c>
+      <c r="C18" s="17">
+        <v>46</v>
       </c>
       <c r="D18" s="8">
-        <v>54.639898540165674</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="17">
         <v>46</v>
       </c>
-      <c r="C19" s="27">
-        <v>54.549713081157044</v>
-      </c>
       <c r="D19" s="8">
-        <v>54.549713081157044</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="27">
-        <v>54.522799970244741</v>
+        <v>64</v>
+      </c>
+      <c r="C20" s="17">
+        <v>46</v>
       </c>
       <c r="D20" s="8">
-        <v>54.522799970244741</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="27">
-        <v>54.496896203262594</v>
+        <v>75</v>
+      </c>
+      <c r="C21" s="17">
+        <v>46</v>
       </c>
       <c r="D21" s="8">
-        <v>54.496896203262594</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="27">
-        <v>54.483695652173914</v>
+        <v>70</v>
+      </c>
+      <c r="C22" s="17">
+        <v>45</v>
       </c>
       <c r="D22" s="8">
-        <v>54.483695652173914</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="27">
-        <v>54.124038819637654</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="17">
+        <v>45</v>
       </c>
       <c r="D23" s="8">
-        <v>54.124038819637654</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="27">
-        <v>54.054054054054056</v>
+        <v>61</v>
+      </c>
+      <c r="C24" s="17">
+        <v>45</v>
       </c>
       <c r="D24" s="8">
-        <v>54.054054054054056</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="27">
-        <v>53.456674958540631</v>
+        <v>67</v>
+      </c>
+      <c r="C25" s="17">
+        <v>45</v>
       </c>
       <c r="D25" s="8">
-        <v>53.456674958540631</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="27">
-        <v>53.33764792899408</v>
+        <v>54</v>
+      </c>
+      <c r="C26" s="17">
+        <v>45</v>
       </c>
       <c r="D26" s="8">
-        <v>53.33764792899408</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="27">
-        <v>53.278428888184983</v>
+        <v>63</v>
+      </c>
+      <c r="C27" s="17">
+        <v>45</v>
       </c>
       <c r="D27" s="8">
-        <v>53.278428888184983</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>22</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="27">
-        <v>52.571595558153128</v>
+      <c r="A28" s="8"/>
+      <c r="B28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17">
+        <v>44</v>
       </c>
       <c r="D28" s="8">
-        <v>52.571595558153128</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="27">
-        <v>52.404891762089967</v>
+      <c r="A29" s="8">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="17">
+        <v>44</v>
       </c>
       <c r="D29" s="8">
-        <v>52.404891762089967</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="27">
-        <v>52.385057471264361</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="17">
+        <v>44</v>
       </c>
       <c r="D30" s="8">
-        <v>52.385057471264361</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="27">
-        <v>52.182644275422341</v>
+        <v>43</v>
+      </c>
+      <c r="C31" s="17">
+        <v>44</v>
       </c>
       <c r="D31" s="8">
-        <v>52.182644275422341</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>26</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="27">
-        <v>51.925516829614146</v>
+      <c r="A32" s="8"/>
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>43</v>
       </c>
       <c r="D32" s="8">
-        <v>51.925516829614146</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="27">
-        <v>51.06110847939366</v>
+        <v>44</v>
+      </c>
+      <c r="C33" s="17">
+        <v>43</v>
       </c>
       <c r="D33" s="8">
-        <v>51.06110847939366</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="27">
-        <v>50.919669669669666</v>
+        <v>45</v>
+      </c>
+      <c r="C34" s="17">
+        <v>43</v>
       </c>
       <c r="D34" s="8">
-        <v>50.919669669669666</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -16476,27 +16556,27 @@
         <v>31</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="27">
-        <v>47.395535203205498</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="17">
+        <v>42</v>
       </c>
       <c r="D35" s="8">
-        <v>47.395535203205498</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="27">
-        <v>47.351748606183477</v>
+        <v>58</v>
+      </c>
+      <c r="C36" s="17">
+        <v>41</v>
       </c>
       <c r="D36" s="8">
-        <v>47.351748606183477</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -16504,41 +16584,41 @@
         <v>33</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="27">
-        <v>45.965673702899977</v>
+        <v>52</v>
+      </c>
+      <c r="C37" s="17">
+        <v>39</v>
       </c>
       <c r="D37" s="8">
-        <v>45.965673702899977</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="27">
-        <v>45.72579562239828</v>
+        <v>59</v>
+      </c>
+      <c r="C38" s="17">
+        <v>37</v>
       </c>
       <c r="D38" s="8">
-        <v>45.72579562239828</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="27">
-        <v>44.024205748865356</v>
+        <v>51</v>
+      </c>
+      <c r="C39" s="17">
+        <v>37</v>
       </c>
       <c r="D39" s="8">
-        <v>44.024205748865356</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -16546,16 +16626,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="27">
-        <v>43.441481957383019</v>
+        <v>50</v>
+      </c>
+      <c r="C40" s="17">
+        <v>35</v>
       </c>
       <c r="D40" s="8">
-        <v>43.441481957383019</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G40">
+    <sortCondition descending="1" ref="G2"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Up, Down"</formula1>
@@ -18270,6 +18353,588 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A7F75-6837-4163-BC65-39DF5C676FF2}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="19">
+        <v>89471.032745591932</v>
+      </c>
+      <c r="D2" s="8">
+        <v>89471.032745591932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="19">
+        <v>75350.140056022414</v>
+      </c>
+      <c r="D3" s="8">
+        <v>75350.140056022414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="19">
+        <v>18455.114822546973</v>
+      </c>
+      <c r="D4" s="8">
+        <v>18455.114822546973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="19">
+        <v>17282.288599074465</v>
+      </c>
+      <c r="D5" s="8">
+        <v>17282.288599074465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="19">
+        <v>14400.735294117647</v>
+      </c>
+      <c r="D6" s="8">
+        <v>14400.735294117647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="19">
+        <v>14000</v>
+      </c>
+      <c r="D7" s="8">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="19">
+        <v>13465.033583563809</v>
+      </c>
+      <c r="D8" s="8">
+        <v>13465.033583563809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="19">
+        <v>12222.222222222223</v>
+      </c>
+      <c r="D9" s="8">
+        <v>12222.222222222223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="19">
+        <v>10436.96162881754</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10436.96162881754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="19">
+        <v>10222.401217165616</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10222.401217165616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="19">
+        <v>10039.055235261298</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10039.055235261298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="19">
+        <v>9922.3337753362375</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9922.3337753362375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>9639.5082003269872</v>
+      </c>
+      <c r="D14" s="8">
+        <v>9639.5082003269872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="19">
+        <v>9498.7059526179582</v>
+      </c>
+      <c r="D15" s="8">
+        <v>9498.7059526179582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="19">
+        <v>9415.8163265306121</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9415.8163265306121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="19">
+        <v>8724.5841035120156</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8724.5841035120156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="19">
+        <v>8715.4089023710767</v>
+      </c>
+      <c r="D18" s="8">
+        <v>8715.4089023710767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="19">
+        <v>8654.499151103566</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8654.499151103566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="19">
+        <v>7996.266334785314</v>
+      </c>
+      <c r="D20" s="8">
+        <v>7996.266334785314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="19">
+        <v>7878.3783783783783</v>
+      </c>
+      <c r="D21" s="8">
+        <v>7878.3783783783783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="19">
+        <v>7301.3537374926427</v>
+      </c>
+      <c r="D22" s="8">
+        <v>7301.3537374926427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="19">
+        <v>6090.5923344947732</v>
+      </c>
+      <c r="D23" s="8">
+        <v>6090.5923344947732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="19">
+        <v>5998.0322935355052</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5998.0322935355052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="19">
+        <v>5703.6875409120667</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5703.6875409120667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="19">
+        <v>5436.0748179691018</v>
+      </c>
+      <c r="D26" s="8">
+        <v>5436.0748179691018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="19">
+        <v>5244.8233861144945</v>
+      </c>
+      <c r="D27" s="8">
+        <v>5244.8233861144945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="19">
+        <v>5189.5692799084691</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5189.5692799084691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="19">
+        <v>5099.0752972258915</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5099.0752972258915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="19">
+        <v>5067.4373795761076</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5067.4373795761076</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="19">
+        <v>5041.4855788225996</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5041.4855788225996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="19">
+        <v>4548.8138686131388</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4548.8138686131388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>30</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="19">
+        <v>4500.4470405912853</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4500.4470405912853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="19">
+        <v>4449.0992878089655</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4449.0992878089655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="19">
+        <v>4325.7720984312537</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4325.7720984312537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>32</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19">
+        <v>4188.7929195990619</v>
+      </c>
+      <c r="D36" s="8">
+        <v>4188.7929195990619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>33</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="19">
+        <v>4022.118742724098</v>
+      </c>
+      <c r="D37" s="8">
+        <v>4022.118742724098</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>34</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="19">
+        <v>3833.5177671216034</v>
+      </c>
+      <c r="D38" s="8">
+        <v>3833.5177671216034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>35</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="19">
+        <v>3048.0965890347693</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3048.0965890347693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>36</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="19">
+        <v>2812.2662677636499</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2812.2662677636499</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{105F3D60-2C9E-40E5-8532-B371CE9A11EA}">
+      <formula1>"Up, Down"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:D40"/>
@@ -18853,7 +19518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
